--- a/IP_Liste.V3.xlsx
+++ b/IP_Liste.V3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eebi9\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eebi9\Documents\ZLI\yihaaaaa.biz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2AF569-E6BE-47B2-B45E-2043285162ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17907782-F6B2-4467-96BE-AC056CBA6A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{440DF454-14A3-8E4A-8235-87B1A9D52376}"/>
   </bookViews>
@@ -80,10 +80,10 @@
     <t>172.16.1.67</t>
   </si>
   <si>
-    <t>172.16.1.68</t>
-  </si>
-  <si>
     <t>172.16.1.69</t>
+  </si>
+  <si>
+    <t>172.16.2.68</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="C4:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -531,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
